--- a/data/imf_weo_2019.xlsx
+++ b/data/imf_weo_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mahesh\github\fg500vsgdp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60804FCC-B23B-49F3-99E4-EC78F97D1B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0685F38-FDD1-4AD4-9F60-9296633D4015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="0" windowWidth="23925" windowHeight="15600" xr2:uid="{883FCE49-5F36-499D-A9BA-94FEB0C8D474}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="23925" windowHeight="15600" xr2:uid="{883FCE49-5F36-499D-A9BA-94FEB0C8D474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1814,7 @@
         <v>188</v>
       </c>
       <c r="B104" s="1">
-        <v>12.55</v>
+        <v>12.672000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>98</v>
       </c>
       <c r="B105" s="1">
-        <v>7.5220000000000002</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="1">
-        <v>365.303</v>
+        <v>7.5220000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>100</v>
       </c>
       <c r="B107" s="1">
-        <v>5.7859999999999996</v>
+        <v>365.303</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="1">
-        <v>17.646999999999998</v>
+        <v>5.7859999999999996</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="1">
-        <v>14.859</v>
+        <v>17.646999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="1">
-        <v>0.22</v>
+        <v>14.859</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>104</v>
       </c>
       <c r="B111" s="1">
-        <v>5.6509999999999998</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>105</v>
       </c>
       <c r="B112" s="1">
-        <v>14.391</v>
+        <v>5.6509999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>106</v>
       </c>
       <c r="B113" s="1">
-        <v>1274.18</v>
+        <v>14.391</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>107</v>
       </c>
       <c r="B114" s="1">
-        <v>0.38100000000000001</v>
+        <v>1274.18</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>108</v>
       </c>
       <c r="B115" s="1">
-        <v>11.688000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>109</v>
       </c>
       <c r="B116" s="1">
-        <v>13.637</v>
+        <v>11.688000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>110</v>
       </c>
       <c r="B117" s="1">
-        <v>5.4240000000000004</v>
+        <v>13.637</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>111</v>
       </c>
       <c r="B118" s="1">
-        <v>119.04</v>
+        <v>5.4240000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>112</v>
       </c>
       <c r="B119" s="1">
-        <v>15.093</v>
+        <v>119.04</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="1">
-        <v>65.994</v>
+        <v>15.093</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>114</v>
       </c>
       <c r="B121" s="1">
-        <v>14.368</v>
+        <v>65.994</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>115</v>
       </c>
       <c r="B122" s="1">
-        <v>0.108</v>
+        <v>14.368</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>116</v>
       </c>
       <c r="B123" s="1">
-        <v>29.812999999999999</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>117</v>
       </c>
       <c r="B124" s="1">
-        <v>902.35500000000002</v>
+        <v>29.812999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>118</v>
       </c>
       <c r="B125" s="1">
-        <v>204.67099999999999</v>
+        <v>902.35500000000002</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>119</v>
       </c>
       <c r="B126" s="1">
-        <v>12.528</v>
+        <v>204.67099999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>120</v>
       </c>
       <c r="B127" s="1">
-        <v>9.4429999999999996</v>
+        <v>12.528</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>121</v>
       </c>
       <c r="B128" s="1">
-        <v>446.54300000000001</v>
+        <v>9.4429999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>122</v>
       </c>
       <c r="B129" s="1">
-        <v>12.672000000000001</v>
+        <v>446.54300000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,5 +2545,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>